--- a/main/accuracy_history.xlsx
+++ b/main/accuracy_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>auc_8</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>val_accuracy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>val_auc_8</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>val_loss</t>
         </is>
@@ -457,632 +467,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5221811532974243</v>
+        <v>0.5226432681083679</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6982832551002502</v>
+        <v>0.505810558795929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4940239191055298</v>
+        <v>0.6998739242553711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6926244497299194</v>
+        <v>0.525896430015564</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5254966020584106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6927844285964966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5376617312431335</v>
+        <v>0.5210258960723877</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6926698088645935</v>
+        <v>0.4926137328147888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4940239191055298</v>
+        <v>0.6967411637306213</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6925057172775269</v>
+        <v>0.5179283022880554</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5215176939964294</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6920790076255798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5376617312431335</v>
+        <v>0.5288817286491394</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6906838417053223</v>
+        <v>0.5158188343048096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4900398552417755</v>
+        <v>0.69212806224823</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6922084093093872</v>
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5458683371543884</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6909646987915039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5411275625228882</v>
+        <v>0.5314232707023621</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6902404427528381</v>
+        <v>0.4927956461906433</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5099601745605469</v>
+        <v>0.6937248706817627</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6912991404533386</v>
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5246052742004395</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6899667382240295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5455175638198853</v>
+        <v>0.5311922430992126</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6880941987037659</v>
+        <v>0.5143790245056152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4980079829692841</v>
+        <v>0.6915913820266724</v>
       </c>
       <c r="D6" t="n">
-        <v>0.695492148399353</v>
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4897186160087585</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6928020119667053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.540203332901001</v>
+        <v>0.5344269871711731</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6903144717216492</v>
+        <v>0.5243989229202271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5019920468330383</v>
+        <v>0.6906561851501465</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6964013576507568</v>
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5141329765319824</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6917516589164734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5291127562522888</v>
+        <v>0.5335027575492859</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6912617087364197</v>
+        <v>0.5100950002670288</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5179283022880554</v>
+        <v>0.6918362379074097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6952215433120728</v>
+        <v>0.5338645577430725</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.532403826713562</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6901117563247681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5443623065948486</v>
+        <v>0.5318853855133057</v>
       </c>
       <c r="B9" t="n">
-        <v>0.689508855342865</v>
+        <v>0.5175032615661621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4980079829692841</v>
+        <v>0.690619945526123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6962659358978271</v>
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5235230326652527</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6905376315116882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5365064740180969</v>
+        <v>0.5348891019821167</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6902050971984863</v>
+        <v>0.5301945805549622</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5099601745605469</v>
+        <v>0.6895504593849182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6932460069656372</v>
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5425897836685181</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6887933611869812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5462107062339783</v>
+        <v>0.543207049369812</v>
       </c>
       <c r="B11" t="n">
-        <v>0.687248170375824</v>
+        <v>0.5352728366851807</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5179283022880554</v>
+        <v>0.688559889793396</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6980207562446594</v>
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5060796737670898</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6952555775642395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5457485914230347</v>
+        <v>0.5383548736572266</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6891105771064758</v>
+        <v>0.5325102806091309</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5059760808944702</v>
+        <v>0.6893187761306763</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6983942985534668</v>
+        <v>0.5657370686531067</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5354914665222168</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6885172128677368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5429759621620178</v>
+        <v>0.5464417934417725</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6894772052764893</v>
+        <v>0.5217592716217041</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5019920468330383</v>
+        <v>0.6901270747184753</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6953420639038086</v>
+        <v>0.5458167195320129</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5107907056808472</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6916532516479492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5413585901260376</v>
+        <v>0.5328096151351929</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6886372566223145</v>
+        <v>0.527881920337677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5059760808944702</v>
+        <v>0.6899057626724243</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6952224969863892</v>
+        <v>0.5418326854705811</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5188438892364502</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6924869418144226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5448244214057922</v>
+        <v>0.5455175638198853</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6886423826217651</v>
+        <v>0.5405104160308838</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4980079829692841</v>
+        <v>0.687140166759491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6931824684143066</v>
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.532531201839447</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6903775930404663</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5466728210449219</v>
+        <v>0.5390480756759644</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6878579258918762</v>
+        <v>0.5420604348182678</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4940239191055298</v>
+        <v>0.6882699131965637</v>
       </c>
       <c r="D16" t="n">
-        <v>0.694704532623291</v>
+        <v>0.5537848472595215</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5390565395355225</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.689760684967041</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5524491667747498</v>
+        <v>0.5404343605041504</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6875393390655518</v>
+        <v>0.5379100441932678</v>
       </c>
       <c r="C17" t="n">
-        <v>0.525896430015564</v>
+        <v>0.6882904767990112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6954020261764526</v>
+        <v>0.5099601745605469</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5204354524612427</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.692859947681427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5425138473510742</v>
+        <v>0.5385859608650208</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6867636442184448</v>
+        <v>0.5373989939689636</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5099601745605469</v>
+        <v>0.6879529356956482</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6947445869445801</v>
+        <v>0.5378485918045044</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5184937715530396</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6922206878662109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5415896773338318</v>
+        <v>0.5348891019821167</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6869547963142395</v>
+        <v>0.533684253692627</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5139442086219788</v>
+        <v>0.6890390515327454</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6927202939987183</v>
+        <v>0.56175297498703</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5065889954566956</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.6920536756515503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5459796786308289</v>
+        <v>0.5448244214057922</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6870626211166382</v>
+        <v>0.5409777760505676</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5139442086219788</v>
+        <v>0.6881006956100464</v>
       </c>
       <c r="D20" t="n">
-        <v>0.692533552646637</v>
+        <v>0.56175297498703</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5209128856658936</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6911687254905701</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5494454503059387</v>
+        <v>0.5471349358558655</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6868619918823242</v>
+        <v>0.5347193479537964</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5019920468330383</v>
+        <v>0.6882485151290894</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6927159428596497</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.5455175638198853</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6866544485092163</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5219123363494873</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.693531334400177</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>0.5492144227027893</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.6868176460266113</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4980079829692841</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6909935474395752</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>0.5526801943778992</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.6868062615394592</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5139442086219788</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6929691433906555</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>0.5480591654777527</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.6873576045036316</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5219123363494873</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.692085325717926</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>0.5441312193870544</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.6867740154266357</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5099601745605469</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.692568302154541</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>0.5506007671356201</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.6867997050285339</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5139442086219788</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.6925796270370483</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>0.5411275625228882</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.6872402429580688</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5179283022880554</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.6907202005386353</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>0.5473659634590149</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.6863639354705811</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5139442086219788</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.6913366913795471</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>0.5508317947387695</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.6852911710739136</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5219123363494873</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.6912539601325989</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>0.5512939095497131</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.6862365007400513</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5378485918045044</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.6911230683326721</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>0.5469039082527161</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.6864507794380188</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5139442086219788</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.6913400292396545</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>0.5506007671356201</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.6862494945526123</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5179283022880554</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.6899005770683289</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>0.5519870519638062</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.686426043510437</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5139442086219788</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.6946420669555664</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>0.55406653881073</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.6851337552070618</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5019920468330383</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.6917810440063477</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>0.5499075651168823</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.6848199367523193</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5298804640769958</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.6924209594726562</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>0.5381238460540771</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.686851978302002</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5219123363494873</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.6913440227508545</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>0.5466728210449219</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.6856430768966675</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5059760808944702</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.6912910938262939</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>0.5457485914230347</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.6857067942619324</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5059760808944702</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.6927672028541565</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>0.5492144227027893</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.685309886932373</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5179283022880554</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.6913669109344482</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>0.5559149980545044</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.6842807531356812</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5059760808944702</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.6957427263259888</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>0.5496765375137329</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.6848873496055603</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5179283022880554</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.693533718585968</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>0.5517560243606567</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.685598611831665</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5378485918045044</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.6935855746269226</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>0.5568391680717468</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.6839773058891296</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5378485918045044</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.6924347877502441</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>0.5506007671356201</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.684794545173645</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5338645577430725</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6944905519485474</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>0.557763397693634</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.6844425797462463</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5059760808944702</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.6952321529388428</v>
+        <v>0.5498008131980896</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5233001708984375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6931040287017822</v>
       </c>
     </row>
   </sheetData>

--- a/main/accuracy_history.xlsx
+++ b/main/accuracy_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>auc_8</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>val_accuracy</t>
+          <t>val_AUC</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>val_auc_8</t>
+          <t>val_accuracy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,402 +467,422 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5226432681083679</v>
+        <v>0.49434494972229</v>
       </c>
       <c r="B2" t="n">
-        <v>0.505810558795929</v>
+        <v>0.5180221796035767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6998739242553711</v>
+        <v>0.6960578560829163</v>
       </c>
       <c r="D2" t="n">
+        <v>0.5070983171463013</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.525896430015564</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.5254966020584106</v>
-      </c>
       <c r="F2" t="n">
-        <v>0.6927844285964966</v>
+        <v>0.6919609904289246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5210258960723877</v>
+        <v>0.5078036785125732</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4926137328147888</v>
+        <v>0.5316543579101562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6967411637306213</v>
+        <v>0.6924142837524414</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5179283022880554</v>
+        <v>0.4902279078960419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5215176939964294</v>
+        <v>0.525896430015564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6920790076255798</v>
+        <v>0.6918978095054626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5288817286491394</v>
+        <v>0.5218684673309326</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5158188343048096</v>
+        <v>0.5418207049369812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69212806224823</v>
+        <v>0.6905862092971802</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5537848472595215</v>
+        <v>0.4716068506240845</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5458683371543884</v>
+        <v>0.525896430015564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6909646987915039</v>
+        <v>0.6929607391357422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5314232707023621</v>
+        <v>0.51237952709198</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4927956461906433</v>
+        <v>0.5404343605041504</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6937248706817627</v>
+        <v>0.691703736782074</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5657370686531067</v>
+        <v>0.463744580745697</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5246052742004395</v>
+        <v>0.5139442086219788</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6899667382240295</v>
+        <v>0.694426953792572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5311922430992126</v>
+        <v>0.5184192657470703</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5143790245056152</v>
+        <v>0.5381238460540771</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6915913820266724</v>
+        <v>0.6906134486198425</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5458167195320129</v>
+        <v>0.4704290926456451</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4897186160087585</v>
+        <v>0.5019920468330383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6928020119667053</v>
+        <v>0.6981546878814697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5344269871711731</v>
+        <v>0.5217419266700745</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5243989229202271</v>
+        <v>0.5362753868103027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6906561851501465</v>
+        <v>0.6902234554290771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5338645577430725</v>
+        <v>0.4655271172523499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5141329765319824</v>
+        <v>0.4940239191055298</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6917516589164734</v>
+        <v>0.6994049549102783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.5335027575492859</v>
+        <v>0.5205255746841431</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5100950002670288</v>
+        <v>0.5452865362167358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6918362379074097</v>
+        <v>0.6892334222793579</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5338645577430725</v>
+        <v>0.4580468237400055</v>
       </c>
       <c r="E8" t="n">
-        <v>0.532403826713562</v>
+        <v>0.482071727514267</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6901117563247681</v>
+        <v>0.7019861936569214</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5318853855133057</v>
+        <v>0.5197491645812988</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5175032615661621</v>
+        <v>0.5385859608650208</v>
       </c>
       <c r="C9" t="n">
-        <v>0.690619945526123</v>
+        <v>0.689929187297821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5537848472595215</v>
+        <v>0.4795964062213898</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5235230326652527</v>
+        <v>0.4940239191055298</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6905376315116882</v>
+        <v>0.7013481259346008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5348891019821167</v>
+        <v>0.5204668045043945</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5301945805549622</v>
+        <v>0.540896475315094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6895504593849182</v>
+        <v>0.6893631219863892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5537848472595215</v>
+        <v>0.4717023074626923</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5425897836685181</v>
+        <v>0.4900398552417755</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6887933611869812</v>
+        <v>0.7041957974433899</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.543207049369812</v>
+        <v>0.5385864973068237</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5352728366851807</v>
+        <v>0.5478280782699585</v>
       </c>
       <c r="C11" t="n">
-        <v>0.688559889793396</v>
+        <v>0.6875247359275818</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5458167195320129</v>
+        <v>0.4711930155754089</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5060796737670898</v>
+        <v>0.4780876636505127</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6952555775642395</v>
+        <v>0.7031755447387695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5383548736572266</v>
+        <v>0.5284066200256348</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5325102806091309</v>
+        <v>0.5457485914230347</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6893187761306763</v>
+        <v>0.6885209679603577</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5657370686531067</v>
+        <v>0.4737394750118256</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5354914665222168</v>
+        <v>0.4940239191055298</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6885172128677368</v>
+        <v>0.7048280239105225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5464417934417725</v>
+        <v>0.5321494936943054</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5217592716217041</v>
+        <v>0.5443623065948486</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6901270747184753</v>
+        <v>0.687972366809845</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5458167195320129</v>
+        <v>0.4823020100593567</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5107907056808472</v>
+        <v>0.5019920468330383</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6916532516479492</v>
+        <v>0.7030671834945679</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5328096151351929</v>
+        <v>0.5318777561187744</v>
       </c>
       <c r="B14" t="n">
-        <v>0.527881920337677</v>
+        <v>0.5448244214057922</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6899057626724243</v>
+        <v>0.6884204745292664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5418326854705811</v>
+        <v>0.4852304458618164</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5188438892364502</v>
+        <v>0.4940239191055298</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6924869418144226</v>
+        <v>0.7005369663238525</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5455175638198853</v>
+        <v>0.5388932228088379</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5405104160308838</v>
+        <v>0.543207049369812</v>
       </c>
       <c r="C15" t="n">
-        <v>0.687140166759491</v>
+        <v>0.6876343488693237</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5498008131980896</v>
+        <v>0.4858033955097198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.532531201839447</v>
+        <v>0.4900398552417755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6903775930404663</v>
+        <v>0.7018088698387146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5390480756759644</v>
+        <v>0.5411720275878906</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5420604348182678</v>
+        <v>0.5429759621620178</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6882699131965637</v>
+        <v>0.6878017783164978</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5537848472595215</v>
+        <v>0.4895912408828735</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5390565395355225</v>
+        <v>0.5059760808944702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.689760684967041</v>
+        <v>0.7014615535736084</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5404343605041504</v>
+        <v>0.536774754524231</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5379100441932678</v>
+        <v>0.5422828197479248</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6882904767990112</v>
+        <v>0.6875491738319397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5099601745605469</v>
+        <v>0.4935383200645447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5204354524612427</v>
+        <v>0.4980079829692841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.692859947681427</v>
+        <v>0.7006893157958984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5385859608650208</v>
+        <v>0.546239972114563</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5373989939689636</v>
+        <v>0.5492144227027893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6879529356956482</v>
+        <v>0.6860992908477783</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5378485918045044</v>
+        <v>0.4861853718757629</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5184937715530396</v>
+        <v>0.5059760808944702</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6922206878662109</v>
+        <v>0.699829638004303</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5348891019821167</v>
+        <v>0.5431856513023376</v>
       </c>
       <c r="B19" t="n">
-        <v>0.533684253692627</v>
+        <v>0.5489833354949951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6890390515327454</v>
+        <v>0.6866017580032349</v>
       </c>
       <c r="D19" t="n">
-        <v>0.56175297498703</v>
+        <v>0.4945569038391113</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5065889954566956</v>
+        <v>0.4780876636505127</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6920536756515503</v>
+        <v>0.7015613317489624</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>0.5470511913299561</v>
+      </c>
+      <c r="B20" t="n">
         <v>0.5448244214057922</v>
       </c>
-      <c r="B20" t="n">
-        <v>0.5409777760505676</v>
-      </c>
       <c r="C20" t="n">
-        <v>0.6881006956100464</v>
+        <v>0.6862718462944031</v>
       </c>
       <c r="D20" t="n">
-        <v>0.56175297498703</v>
+        <v>0.5013050436973572</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5209128856658936</v>
+        <v>0.4980079829692841</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6911687254905701</v>
+        <v>0.6982542276382446</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5471349358558655</v>
+        <v>0.5487551689147949</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5347193479537964</v>
+        <v>0.5473659634590149</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6882485151290894</v>
+        <v>0.6852623224258423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5498008131980896</v>
+        <v>0.501878023147583</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5233001708984375</v>
+        <v>0.4940239191055298</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6931040287017822</v>
+        <v>0.7013944387435913</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.5415650606155396</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5503696799278259</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6870133876800537</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.501878023147583</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4900398552417755</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6989585161209106</v>
       </c>
     </row>
   </sheetData>
